--- a/Advance/Cheat_sheet.xlsx
+++ b/Advance/Cheat_sheet.xlsx
@@ -700,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +828,7 @@
         <v>78</v>
       </c>
       <c r="C11" s="10">
-        <v>42914</v>
+        <v>42918</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>79</v>
       </c>
       <c r="C12" s="10">
-        <v>42915</v>
+        <v>42918</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="10">
-        <v>42916</v>
+        <v>42918</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/Advance/Cheat_sheet.xlsx
+++ b/Advance/Cheat_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>Select</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -698,19 +701,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
@@ -720,8 +724,11 @@
       <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -731,8 +738,11 @@
       <c r="C2" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -742,8 +752,11 @@
       <c r="C3" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -753,8 +766,11 @@
       <c r="C4" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -764,8 +780,11 @@
       <c r="C5" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -776,7 +795,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -787,7 +806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -798,7 +817,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -809,7 +828,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -820,7 +839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -831,7 +850,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -842,7 +861,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -853,7 +872,7 @@
         <v>42918</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -864,7 +883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -875,7 +894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>

--- a/Advance/Cheat_sheet.xlsx
+++ b/Advance/Cheat_sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Select</t>
   </si>
@@ -309,13 +309,70 @@
   </si>
   <si>
     <t>Revision</t>
+  </si>
+  <si>
+    <t>12-Jul-2018, 13-Jul-2018</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Exam-1,2</t>
+  </si>
+  <si>
+    <t>Exam-3,4</t>
+  </si>
+  <si>
+    <t>Exam-5,6</t>
+  </si>
+  <si>
+    <t>Exam-7,8</t>
+  </si>
+  <si>
+    <t>Exam-9,10</t>
+  </si>
+  <si>
+    <t>Exam-11,12</t>
+  </si>
+  <si>
+    <t>Exam-13,14</t>
+  </si>
+  <si>
+    <t>Exam-15,16</t>
+  </si>
+  <si>
+    <t>Exam-17,18</t>
+  </si>
+  <si>
+    <t>Mock-1, Mock-2, Mock-3</t>
+  </si>
+  <si>
+    <t>Mock-4, Mock-5, Mock-6</t>
+  </si>
+  <si>
+    <t>Mock-7, Mock-8, Mock-9</t>
+  </si>
+  <si>
+    <t>Exam Day</t>
+  </si>
+  <si>
+    <t>Mock-1,2,3</t>
+  </si>
+  <si>
+    <t>Mock-4,5,6</t>
+  </si>
+  <si>
+    <t>Mock-7,8,9</t>
+  </si>
+  <si>
+    <t>Finals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +388,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -409,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -421,6 +491,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,9 +790,11 @@
     <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
@@ -727,8 +807,14 @@
       <c r="D1" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -741,8 +827,10 @@
       <c r="D2" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -755,8 +843,10 @@
       <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -769,8 +859,10 @@
       <c r="D4" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -783,8 +875,10 @@
       <c r="D5" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -794,8 +888,13 @@
       <c r="C6" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -805,8 +904,13 @@
       <c r="C7" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -816,8 +920,13 @@
       <c r="C8" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -827,8 +936,13 @@
       <c r="C9" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -838,41 +952,55 @@
       <c r="C10" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="10">
-        <v>42918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="10">
-        <v>42918</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="10">
-        <v>42918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -882,8 +1010,11 @@
       <c r="C14" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -893,8 +1024,11 @@
       <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -904,87 +1038,225 @@
       <c r="C16" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <v>43293</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43298</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43299</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43300</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="14">
+        <v>43301</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
